--- a/Ipv4 táblázat.xlsx
+++ b/Ipv4 táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czifrap\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC55714-45ED-4651-957D-822E9753D495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5AD19-B0B3-4898-80F1-42E851AEC556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{1D9BF4B1-892E-4DB9-B299-444EB41A9B2D}"/>
   </bookViews>
@@ -238,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -287,11 +287,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +357,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -664,7 +687,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,8 +717,8 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
@@ -705,8 +728,8 @@
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
@@ -715,8 +738,8 @@
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
@@ -726,8 +749,8 @@
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
@@ -769,20 +792,20 @@
       <c r="B8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
@@ -816,9 +839,9 @@
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -827,9 +850,9 @@
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -838,9 +861,9 @@
       <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">

--- a/Ipv4 táblázat.xlsx
+++ b/Ipv4 táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czifrap\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5AD19-B0B3-4898-80F1-42E851AEC556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D7C8F-2A72-4333-AA87-D6197122F187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{1D9BF4B1-892E-4DB9-B299-444EB41A9B2D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Ipv4 címzés</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>192.168.103.6/27</t>
+  </si>
+  <si>
+    <t>Default:192.168.103.34</t>
+  </si>
+  <si>
+    <t>Default:192.168.103.99</t>
+  </si>
+  <si>
+    <t>Default:192.168.103.67</t>
   </si>
 </sst>
 </file>
@@ -687,7 +696,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +849,9 @@
         <v>31</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -851,7 +862,9 @@
         <v>32</v>
       </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,7 +875,9 @@
         <v>30</v>
       </c>
       <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
